--- a/biology/Zoologie/Jean_Baptiste_Lucien_Buquet/Jean_Baptiste_Lucien_Buquet.xlsx
+++ b/biology/Zoologie/Jean_Baptiste_Lucien_Buquet/Jean_Baptiste_Lucien_Buquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Baptiste Lucien Buquet est un entomologiste français, né le 4 mars 1807 à Deinze et mort le 14 décembre 1889 à Paris.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet entomologiste et marchand d’insectes se consacre principalement aux coléoptères. Il décrit de nombreux nouveaux taxons (genres et espèces). Il reçoit, grâce à son commerce, de nombreux coléoptères exotiques notamment des Dynastidae, des Buprestidae, des Lucanidae et des Scarabaeidae. Il vend également des lépidoptères, spécialement des Morpho et des Agrias. Les animaux viennent principalement de l’empire colonial français. Il est membre de la Société entomologique de France.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1834 : Description de onze espèces nouvelles du genre Lebia ; rapportées de Cayenne par M. Leprieur. Annales de la Société entomologique de France 3 : 673-681.
 1835 : Description d’un Coléoptère nouveau, du genre Goliathus (de Lamarck). Annales de la Société entomologique de France, 4 : 135-137 (1835).
@@ -576,7 +592,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 1er mai 2007).</t>
         </is>
